--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 04:06:16</t>
+    <t>2017-01-03 04:08:43</t>
   </si>
   <si>
     <t>1d3dfbca-0a2e-4df2-9fa7-f5d6ba8137b9.md</t>
@@ -58,9 +58,6 @@
     <t>e2e\1d3dfbca-0a2e-4df2-9fa7-f5d6ba8137b9.md</t>
   </si>
   <si>
-    <t>2017-01-03 04:07:27</t>
-  </si>
-  <si>
     <t>2ef76b24-c126-4a3a-a7b4-ae41f8b01561.md</t>
   </si>
   <si>
@@ -130,34 +127,31 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>1083aef5-d638-4dd4-8075-19f92f7d9813.a00f92d723312d7b49f9018f7439caa013f556ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:08:32</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>1083aef5-d638-4dd4-8075-19f92f7d9813.a00f92d723312d7b49f9018f7439caa013f556ba.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 04:06:07</t>
-  </si>
-  <si>
     <t>2017-01-03 04:06:31</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>ht</t>
-  </si>
-  <si>
     <t>1d3dfbca-0a2e-4df2-9fa7-f5d6ba8137b9.caed9db06ad2c93079a6eb0a23a36473aefd907e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 04:07:17</t>
-  </si>
-  <si>
-    <t>2017-01-03 04:07:49</t>
+    <t>2017-01-03 04:09:05</t>
   </si>
   <si>
     <t>2ef76b24-c126-4a3a-a7b4-ae41f8b01561.0a6dcfa53c82efd5cfa9ee05b83b1886b006ee0b.zh-cn.xlf</t>
@@ -175,7 +169,7 @@
     <t>1d3dfbca-0a2e-4df2-9fa7-f5d6ba8137b9.caed9db06ad2c93079a6eb0a23a36473aefd907e.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 04:08:00</t>
+    <t>2017-01-03 04:09:16</t>
   </si>
   <si>
     <t>2ef76b24-c126-4a3a-a7b4-ae41f8b01561.0a6dcfa53c82efd5cfa9ee05b83b1886b006ee0b.de-de.xlf</t>
@@ -384,15 +378,15 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -409,11 +403,11 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
@@ -424,7 +418,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -471,58 +465,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -536,49 +530,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -592,54 +586,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -648,54 +642,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -704,49 +698,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -797,58 +791,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -862,49 +856,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -918,54 +912,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F3" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -974,54 +968,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1030,49 +1024,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>File Name</t>
   </si>
@@ -37,18 +37,33 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md</t>
+  </si>
+  <si>
+    <t>e2e\7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:21:37</t>
+  </si>
+  <si>
+    <t>c771cdfd-9498-4d79-80a2-d7f330b13b6f.md</t>
+  </si>
+  <si>
+    <t>e2e\c771cdfd-9498-4d79-80a2-d7f330b13b6f.md</t>
+  </si>
+  <si>
     <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.md</t>
   </si>
   <si>
     <t>e2e\f22cedc0-676f-45f3-9b46-105fd66ba8c8.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-01-03 04:20:17</t>
   </si>
   <si>
@@ -115,19 +130,40 @@
     <t>False</t>
   </si>
   <si>
+    <t>7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.25e04ecef63ff027da7fb2ee33130e11e1ef5eae.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:21:27</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-01-03 04:21:53</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>c771cdfd-9498-4d79-80a2-d7f330b13b6f.d827e40143dd4aa532e6113c93486bcd6ac53ce4.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.486070234ff1031d98e40249a22f43ffc20b7c62.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-01-03 04:20:05</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2017-01-03 04:20:36</t>
   </si>
   <si>
-    <t>True</t>
+    <t>7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.25e04ecef63ff027da7fb2ee33130e11e1ef5eae.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:22:03</t>
+  </si>
+  <si>
+    <t>c771cdfd-9498-4d79-80a2-d7f330b13b6f.d827e40143dd4aa532e6113c93486bcd6ac53ce4.de-de.xlf</t>
   </si>
   <si>
     <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.486070234ff1031d98e40249a22f43ffc20b7c62.de-de.xlf</t>
@@ -190,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +355,51 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +438,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +503,171 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +678,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +706,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +771,171 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -46,24 +46,27 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:21:37</t>
+  </si>
+  <si>
+    <t>c771cdfd-9498-4d79-80a2-d7f330b13b6f.md</t>
+  </si>
+  <si>
+    <t>e2e\c771cdfd-9498-4d79-80a2-d7f330b13b6f.md</t>
+  </si>
+  <si>
+    <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.md</t>
+  </si>
+  <si>
+    <t>e2e\f22cedc0-676f-45f3-9b46-105fd66ba8c8.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 04:21:37</t>
-  </si>
-  <si>
-    <t>c771cdfd-9498-4d79-80a2-d7f330b13b6f.md</t>
-  </si>
-  <si>
-    <t>e2e\c771cdfd-9498-4d79-80a2-d7f330b13b6f.md</t>
-  </si>
-  <si>
-    <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.md</t>
-  </si>
-  <si>
-    <t>e2e\f22cedc0-676f-45f3-9b46-105fd66ba8c8.md</t>
-  </si>
-  <si>
     <t>2017-01-03 04:20:17</t>
   </si>
   <si>
@@ -148,6 +151,9 @@
     <t>c771cdfd-9498-4d79-80a2-d7f330b13b6f.d827e40143dd4aa532e6113c93486bcd6ac53ce4.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-01-03 04:23:04</t>
+  </si>
+  <si>
     <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.486070234ff1031d98e40249a22f43ffc20b7c62.zh-cn.xlf</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
   </si>
   <si>
     <t>c771cdfd-9498-4d79-80a2-d7f330b13b6f.d827e40143dd4aa532e6113c93486bcd6ac53ce4.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:23:15</t>
   </si>
   <si>
     <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.486070234ff1031d98e40249a22f43ffc20b7c62.de-de.xlf</t>
@@ -307,8 +316,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -386,13 +395,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -418,7 +427,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -438,58 +447,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -503,49 +512,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -559,49 +568,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -612,52 +621,52 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -686,7 +695,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -706,58 +715,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -771,49 +780,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -827,49 +836,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -880,52 +889,52 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>File Name</t>
   </si>
@@ -58,15 +58,42 @@
     <t>e2e\c771cdfd-9498-4d79-80a2-d7f330b13b6f.md</t>
   </si>
   <si>
+    <t>0afeac5d-3d1d-4327-8ccd-670191bb540f.md</t>
+  </si>
+  <si>
+    <t>e2e\0afeac5d-3d1d-4327-8ccd-670191bb540f.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:23:57</t>
+  </si>
+  <si>
+    <t>44ea4939-be20-4484-b0d7-fdf7deddc0f0.md</t>
+  </si>
+  <si>
+    <t>e2e\44ea4939-be20-4484-b0d7-fdf7deddc0f0.md</t>
+  </si>
+  <si>
+    <t>8a7a3367-6d7d-4c73-a463-5787ff4b6772.md</t>
+  </si>
+  <si>
+    <t>e2e\8a7a3367-6d7d-4c73-a463-5787ff4b6772.md</t>
+  </si>
+  <si>
+    <t>a6988500-8019-4df2-9904-be9cdb1384e5.md</t>
+  </si>
+  <si>
+    <t>e2e\a6988500-8019-4df2-9904-be9cdb1384e5.md</t>
+  </si>
+  <si>
     <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.md</t>
   </si>
   <si>
     <t>e2e\f22cedc0-676f-45f3-9b46-105fd66ba8c8.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-01-03 04:20:17</t>
   </si>
   <si>
@@ -154,6 +181,24 @@
     <t>2017-01-03 04:23:04</t>
   </si>
   <si>
+    <t>0afeac5d-3d1d-4327-8ccd-670191bb540f.33063fbfa73b6f0aa55728a205eaf5a68ddf4e52.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:23:45</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:24:33</t>
+  </si>
+  <si>
+    <t>44ea4939-be20-4484-b0d7-fdf7deddc0f0.45b426206b292a88d41bdf90d25b0d1a75b41e66.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8a7a3367-6d7d-4c73-a463-5787ff4b6772.366e909a139d734e759815ea9d742ba34b68710e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>a6988500-8019-4df2-9904-be9cdb1384e5.0be42608db479f084183ae12a519ed6eaa41e786.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.486070234ff1031d98e40249a22f43ffc20b7c62.zh-cn.xlf</t>
   </si>
   <si>
@@ -173,6 +218,21 @@
   </si>
   <si>
     <t>2017-01-03 04:23:15</t>
+  </si>
+  <si>
+    <t>0afeac5d-3d1d-4327-8ccd-670191bb540f.33063fbfa73b6f0aa55728a205eaf5a68ddf4e52.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:24:44</t>
+  </si>
+  <si>
+    <t>44ea4939-be20-4484-b0d7-fdf7deddc0f0.45b426206b292a88d41bdf90d25b0d1a75b41e66.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8a7a3367-6d7d-4c73-a463-5787ff4b6772.366e909a139d734e759815ea9d742ba34b68710e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>a6988500-8019-4df2-9904-be9cdb1384e5.0be42608db479f084183ae12a519ed6eaa41e786.de-de.xlf</t>
   </si>
   <si>
     <t>f22cedc0-676f-45f3-9b46-105fd66ba8c8.486070234ff1031d98e40249a22f43ffc20b7c62.de-de.xlf</t>
@@ -235,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -262,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -289,8 +349,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -306,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,11 +464,95 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId4"/>
+    <hyperlink ref="B4" display="e2e\0afeac5d-3d1d-4327-8ccd-670191bb540f.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\44ea4939-be20-4484-b0d7-fdf7deddc0f0.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\8a7a3367-6d7d-4c73-a463-5787ff4b6772.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\a6988500-8019-4df2-9904-be9cdb1384e5.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -419,7 +563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,58 +591,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -512,49 +656,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -568,49 +712,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -624,49 +768,273 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>41</v>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +1043,16 @@
     <hyperlink ref="J2" display="7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md" r:id="rId3"/>
     <hyperlink ref="A3" display="c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId4"/>
     <hyperlink ref="J3" display="c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="0afeac5d-3d1d-4327-8ccd-670191bb540f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="0afeac5d-3d1d-4327-8ccd-670191bb540f.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="44ea4939-be20-4484-b0d7-fdf7deddc0f0.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="44ea4939-be20-4484-b0d7-fdf7deddc0f0.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="8a7a3367-6d7d-4c73-a463-5787ff4b6772.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="8a7a3367-6d7d-4c73-a463-5787ff4b6772.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="a6988500-8019-4df2-9904-be9cdb1384e5.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="a6988500-8019-4df2-9904-be9cdb1384e5.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -687,7 +1063,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,58 +1091,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -780,49 +1156,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -836,49 +1212,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -892,49 +1268,273 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -943,8 +1543,16 @@
     <hyperlink ref="J2" display="7abf3104-48c9-4ff1-abb4-3fa0aacff4aa.md" r:id="rId3"/>
     <hyperlink ref="A3" display="c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId4"/>
     <hyperlink ref="J3" display="c771cdfd-9498-4d79-80a2-d7f330b13b6f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="0afeac5d-3d1d-4327-8ccd-670191bb540f.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="0afeac5d-3d1d-4327-8ccd-670191bb540f.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="44ea4939-be20-4484-b0d7-fdf7deddc0f0.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="44ea4939-be20-4484-b0d7-fdf7deddc0f0.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="8a7a3367-6d7d-4c73-a463-5787ff4b6772.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="8a7a3367-6d7d-4c73-a463-5787ff4b6772.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="a6988500-8019-4df2-9904-be9cdb1384e5.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="a6988500-8019-4df2-9904-be9cdb1384e5.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="f22cedc0-676f-45f3-9b46-105fd66ba8c8.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:47:31</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 04:47:31</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-01-03 04:49:43</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-01-03 04:49:31</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:50:30</t>
+  </si>
+  <si>
+    <t>TestHandback_201701030450</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-01-03 04:47:59</t>
+  </si>
+  <si>
+    <t>2017-01-03 04:50:42</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850729806083" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -58,6 +58,9 @@
     <t>e2e\79e7ad8f-45e1-445a-94e1-ff455b360b30.md</t>
   </si>
   <si>
+    <t>2017-01-03 05:06:17</t>
+  </si>
+  <si>
     <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
   </si>
   <si>
@@ -160,6 +163,12 @@
     <t>79e7ad8f-45e1-445a-94e1-ff455b360b30.867cbea78c57084518c646606a11f57733cf8450.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-01-03 05:06:05</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:06:38</t>
+  </si>
+  <si>
     <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.6138f134366119bfb878aee22fbb81c4bb396e6b.zh-cn.xlf</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
   </si>
   <si>
     <t>79e7ad8f-45e1-445a-94e1-ff455b360b30.867cbea78c57084518c646606a11f57733cf8450.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:06:49</t>
   </si>
   <si>
     <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.6138f134366119bfb878aee22fbb81c4bb396e6b.de-de.xlf</t>
@@ -384,15 +396,15 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -409,13 +421,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
@@ -429,13 +441,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,54 +625,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -669,161 +681,161 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,54 +1009,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1053,161 +1065,161 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -52,34 +52,13 @@
     <t>2017-01-03 05:05:02</t>
   </si>
   <si>
-    <t>79e7ad8f-45e1-445a-94e1-ff455b360b30.md</t>
-  </si>
-  <si>
-    <t>e2e\79e7ad8f-45e1-445a-94e1-ff455b360b30.md</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:06:17</t>
-  </si>
-  <si>
     <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
   </si>
   <si>
     <t>e2e\b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
   </si>
   <si>
-    <t>e2b748c5-0493-4584-aff9-b7ca27785cc7.png</t>
-  </si>
-  <si>
-    <t>e2e\e2b748c5-0493-4584-aff9-b7ca27785cc7.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>f89986f0-84e7-4f2a-9ae4-20130289bd6d.png</t>
-  </si>
-  <si>
-    <t>e2e\f89986f0-84e7-4f2a-9ae4-20130289bd6d.png</t>
+    <t>2017-01-03 05:07:32</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -160,25 +139,13 @@
     <t>True</t>
   </si>
   <si>
-    <t>79e7ad8f-45e1-445a-94e1-ff455b360b30.867cbea78c57084518c646606a11f57733cf8450.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:06:05</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:06:38</t>
-  </si>
-  <si>
     <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.6138f134366119bfb878aee22fbb81c4bb396e6b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>962ed0ac9b9d62184a82f29a07f97808271f51d8.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>b3fdde3ee8368a17c83ff65a68477a06f1517536.png</t>
+    <t>2017-01-03 05:07:20</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:07:53</t>
   </si>
   <si>
     <t>34736a26-0446-4066-b590-146bea0c83c7.43e4e2b717dc11c047ea311c75f0200ed2da16df.de-de.xlf</t>
@@ -187,13 +154,10 @@
     <t>2017-01-03 05:05:32</t>
   </si>
   <si>
-    <t>79e7ad8f-45e1-445a-94e1-ff455b360b30.867cbea78c57084518c646606a11f57733cf8450.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:06:49</t>
-  </si>
-  <si>
     <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.6138f134366119bfb878aee22fbb81c4bb396e6b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:08:05</t>
   </si>
 </sst>
 </file>
@@ -250,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -277,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -304,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -321,7 +285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -399,73 +363,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\79e7ad8f-45e1-445a-94e1-ff455b360b30.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\e2b748c5-0493-4584-aff9-b7ca27785cc7.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\f89986f0-84e7-4f2a-9ae4-20130289bd6d.png" r:id="rId6"/>
+    <hyperlink ref="B3" display="e2e\b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -476,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,66 +397,66 @@
     <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
     <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="17.7080830165318" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
     <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -569,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -625,231 +526,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId2"/>
     <hyperlink ref="J2" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="79e7ad8f-45e1-445a-94e1-ff455b360b30.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="79e7ad8f-45e1-445a-94e1-ff455b360b30.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="e2b748c5-0493-4584-aff9-b7ca27785cc7.png" r:id="rId8"/>
-    <hyperlink ref="J5" display="e2b748c5-0493-4584-aff9-b7ca27785cc7.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="f89986f0-84e7-4f2a-9ae4-20130289bd6d.png" r:id="rId10"/>
-    <hyperlink ref="J6" display="f89986f0-84e7-4f2a-9ae4-20130289bd6d.png" r:id="rId11"/>
+    <hyperlink ref="A3" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -860,7 +587,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -880,66 +607,66 @@
     <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
     <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="17.7080830165318" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
     <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -953,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1009,231 +736,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId2"/>
     <hyperlink ref="J2" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="79e7ad8f-45e1-445a-94e1-ff455b360b30.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="79e7ad8f-45e1-445a-94e1-ff455b360b30.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="e2b748c5-0493-4584-aff9-b7ca27785cc7.png" r:id="rId8"/>
-    <hyperlink ref="J5" display="e2b748c5-0493-4584-aff9-b7ca27785cc7.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="f89986f0-84e7-4f2a-9ae4-20130289bd6d.png" r:id="rId10"/>
-    <hyperlink ref="J6" display="f89986f0-84e7-4f2a-9ae4-20130289bd6d.png" r:id="rId11"/>
+    <hyperlink ref="A3" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>File Name</t>
   </si>
@@ -37,63 +37,63 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>079cde27-4217-4bc7-909e-824630349f84.md</t>
+  </si>
+  <si>
+    <t>e2e\079cde27-4217-4bc7-909e-824630349f84.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:10:36</t>
+  </si>
+  <si>
+    <t>34736a26-0446-4066-b590-146bea0c83c7.md</t>
+  </si>
+  <si>
+    <t>e2e\34736a26-0446-4066-b590-146bea0c83c7.md</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:05:02</t>
+  </si>
+  <si>
+    <t>42a66b22-3780-442f-a228-f1fdaff159bf.md</t>
+  </si>
+  <si>
+    <t>e2e\42a66b22-3780-442f-a228-f1fdaff159bf.md</t>
+  </si>
+  <si>
     <t>67e2d4ba-8a50-4e78-9378-896c69f2297e.md</t>
   </si>
   <si>
     <t>e2e\67e2d4ba-8a50-4e78-9378-896c69f2297e.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
+    <t>2017-01-03 05:15:37</t>
+  </si>
+  <si>
+    <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
+  </si>
+  <si>
+    <t>e2e\b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:07:32</t>
+  </si>
+  <si>
+    <t>ded74131-e733-43b7-beb7-f12e292e4db0.md</t>
+  </si>
+  <si>
+    <t>e2e\ded74131-e733-43b7-beb7-f12e292e4db0.md</t>
   </si>
   <si>
     <t>2017-01-03 05:15:00</t>
   </si>
   <si>
-    <t>079cde27-4217-4bc7-909e-824630349f84.md</t>
-  </si>
-  <si>
-    <t>e2e\079cde27-4217-4bc7-909e-824630349f84.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:10:36</t>
-  </si>
-  <si>
-    <t>34736a26-0446-4066-b590-146bea0c83c7.md</t>
-  </si>
-  <si>
-    <t>e2e\34736a26-0446-4066-b590-146bea0c83c7.md</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:05:02</t>
-  </si>
-  <si>
-    <t>42a66b22-3780-442f-a228-f1fdaff159bf.md</t>
-  </si>
-  <si>
-    <t>e2e\42a66b22-3780-442f-a228-f1fdaff159bf.md</t>
-  </si>
-  <si>
-    <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
-  </si>
-  <si>
-    <t>e2e\b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:07:32</t>
-  </si>
-  <si>
-    <t>ded74131-e733-43b7-beb7-f12e292e4db0.md</t>
-  </si>
-  <si>
-    <t>e2e\ded74131-e733-43b7-beb7-f12e292e4db0.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -157,76 +157,85 @@
     <t>False</t>
   </si>
   <si>
+    <t>079cde27-4217-4bc7-909e-824630349f84.d40e99ef1cb86c801d00eb9df6b3be34a7d64d29.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:10:25</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-01-03 05:10:59</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>34736a26-0446-4066-b590-146bea0c83c7.43e4e2b717dc11c047ea311c75f0200ed2da16df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:04:50</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:05:21</t>
+  </si>
+  <si>
     <t>67e2d4ba-8a50-4e78-9378-896c69f2297e.f65a7aa29caa8e3f7fd66041c6481f0f379ccadb.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-01-03 05:15:25</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:16:36</t>
+  </si>
+  <si>
+    <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.6138f134366119bfb878aee22fbb81c4bb396e6b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:07:20</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:07:53</t>
+  </si>
+  <si>
+    <t>ded74131-e733-43b7-beb7-f12e292e4db0.942f53a7b61c9b46228a788087d3db3881294b56.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-01-03 05:14:47</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2017-01-03 05:15:58</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>079cde27-4217-4bc7-909e-824630349f84.d40e99ef1cb86c801d00eb9df6b3be34a7d64d29.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:10:25</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:10:59</t>
-  </si>
-  <si>
-    <t>34736a26-0446-4066-b590-146bea0c83c7.43e4e2b717dc11c047ea311c75f0200ed2da16df.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:04:50</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:05:21</t>
-  </si>
-  <si>
-    <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.6138f134366119bfb878aee22fbb81c4bb396e6b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:07:20</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:07:53</t>
-  </si>
-  <si>
-    <t>ded74131-e733-43b7-beb7-f12e292e4db0.942f53a7b61c9b46228a788087d3db3881294b56.zh-cn.xlf</t>
+    <t>079cde27-4217-4bc7-909e-824630349f84.d40e99ef1cb86c801d00eb9df6b3be34a7d64d29.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:11:11</t>
+  </si>
+  <si>
+    <t>34736a26-0446-4066-b590-146bea0c83c7.43e4e2b717dc11c047ea311c75f0200ed2da16df.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:05:32</t>
   </si>
   <si>
     <t>67e2d4ba-8a50-4e78-9378-896c69f2297e.f65a7aa29caa8e3f7fd66041c6481f0f379ccadb.de-de.xlf</t>
   </si>
   <si>
+    <t>2017-01-03 05:16:48</t>
+  </si>
+  <si>
+    <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.6138f134366119bfb878aee22fbb81c4bb396e6b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:08:05</t>
+  </si>
+  <si>
+    <t>ded74131-e733-43b7-beb7-f12e292e4db0.942f53a7b61c9b46228a788087d3db3881294b56.de-de.xlf</t>
+  </si>
+  <si>
     <t>2017-01-03 05:16:10</t>
-  </si>
-  <si>
-    <t>079cde27-4217-4bc7-909e-824630349f84.d40e99ef1cb86c801d00eb9df6b3be34a7d64d29.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:11:11</t>
-  </si>
-  <si>
-    <t>34736a26-0446-4066-b590-146bea0c83c7.43e4e2b717dc11c047ea311c75f0200ed2da16df.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:05:32</t>
-  </si>
-  <si>
-    <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.6138f134366119bfb878aee22fbb81c4bb396e6b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:08:05</t>
-  </si>
-  <si>
-    <t>ded74131-e733-43b7-beb7-f12e292e4db0.942f53a7b61c9b46228a788087d3db3881294b56.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -364,8 +373,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -423,101 +432,101 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId5"/>
+    <hyperlink ref="B2" display="e2e\079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\ded74131-e733-43b7-beb7-f12e292e4db0.md" r:id="rId7"/>
   </hyperlinks>
@@ -538,7 +547,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -676,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>44</v>
@@ -726,13 +735,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>44</v>
@@ -744,22 +753,22 @@
         <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>49</v>
@@ -782,13 +791,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>44</v>
@@ -800,22 +809,22 @@
         <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>49</v>
@@ -838,13 +847,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -865,7 +874,7 @@
         <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
         <v>58</v>
@@ -894,13 +903,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -915,19 +924,19 @@
         <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>61</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>49</v>
@@ -950,14 +959,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId9"/>
     <hyperlink ref="A6" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId10"/>
     <hyperlink ref="J6" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId11"/>
     <hyperlink ref="A7" display="ded74131-e733-43b7-beb7-f12e292e4db0.md" r:id="rId12"/>
@@ -980,7 +989,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -1074,7 +1083,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1086,10 +1095,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>49</v>
@@ -1118,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>44</v>
@@ -1130,10 +1139,10 @@
         <v>51</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>49</v>
@@ -1142,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>49</v>
@@ -1168,13 +1177,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>44</v>
@@ -1186,22 +1195,22 @@
         <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>49</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>49</v>
@@ -1224,13 +1233,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>44</v>
@@ -1242,22 +1251,22 @@
         <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>49</v>
@@ -1280,13 +1289,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -1298,22 +1307,22 @@
         <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>49</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>49</v>
@@ -1336,13 +1345,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -1354,22 +1363,22 @@
         <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>49</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>49</v>
@@ -1392,14 +1401,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="079cde27-4217-4bc7-909e-824630349f84.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="34736a26-0446-4066-b590-146bea0c83c7.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="42a66b22-3780-442f-a228-f1fdaff159bf.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="67e2d4ba-8a50-4e78-9378-896c69f2297e.md" r:id="rId9"/>
     <hyperlink ref="A6" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId10"/>
     <hyperlink ref="J6" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId11"/>
     <hyperlink ref="A7" display="ded74131-e733-43b7-beb7-f12e292e4db0.md" r:id="rId12"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>File Name</t>
   </si>
@@ -118,184 +118,187 @@
     <t>e2e\87b3b7a0-982d-4cdc-8e2d-6726dd3f3c31.md</t>
   </si>
   <si>
+    <t>2017-01-03 05:21:39</t>
+  </si>
+  <si>
+    <t>95a35f09-e89c-454a-8198-ed99a1000a43.md</t>
+  </si>
+  <si>
+    <t>e2e\95a35f09-e89c-454a-8198-ed99a1000a43.md</t>
+  </si>
+  <si>
+    <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
+  </si>
+  <si>
+    <t>e2e\b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:07:32</t>
+  </si>
+  <si>
+    <t>d0754f14-bc76-477a-bded-55bcf43e9067.md</t>
+  </si>
+  <si>
+    <t>e2e\d0754f14-bc76-477a-bded-55bcf43e9067.md</t>
+  </si>
+  <si>
+    <t>ded74131-e733-43b7-beb7-f12e292e4db0.md</t>
+  </si>
+  <si>
+    <t>e2e\ded74131-e733-43b7-beb7-f12e292e4db0.md</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:15:00</t>
+  </si>
+  <si>
+    <t>ee297185-0648-461d-956d-583a598627ba.md</t>
+  </si>
+  <si>
+    <t>e2e\ee297185-0648-461d-956d-583a598627ba.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>079cde27-4217-4bc7-909e-824630349f84.d40e99ef1cb86c801d00eb9df6b3be34a7d64d29.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:10:25</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-01-03 05:10:59</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>1adfbd5d-9460-4929-a053-a8fb42bed163.7361e34a2b1aa2af3fe2f94a93c713c57bbe1c26.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:18:46</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:19:18</t>
+  </si>
+  <si>
+    <t>API_HB_2017010319</t>
+  </si>
+  <si>
+    <t>34736a26-0446-4066-b590-146bea0c83c7.43e4e2b717dc11c047ea311c75f0200ed2da16df.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:04:50</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:05:21</t>
+  </si>
+  <si>
+    <t>67e2d4ba-8a50-4e78-9378-896c69f2297e.f65a7aa29caa8e3f7fd66041c6481f0f379ccadb.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:15:25</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:16:36</t>
+  </si>
+  <si>
+    <t>6db72158-8511-48cb-bef7-e24a11e33d6f.a0e5ce44109f3350a119be70cdc21df39050f58e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:17:26</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:17:59</t>
+  </si>
+  <si>
+    <t>Full_HB_2017010317</t>
+  </si>
+  <si>
+    <t>84bd7d91-390f-46b0-b2f7-93752559642f.46789938033b7de46aef47ad8e23587d4f726694.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:20:46</t>
+  </si>
+  <si>
+    <t>API_HB_2017010320</t>
+  </si>
+  <si>
+    <t>84e29cc2-38e2-465f-a283-ffe3d5382cef.fc885b91c6103052189d3100315d7663b4895938.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>87b3b7a0-982d-4cdc-8e2d-6726dd3f3c31.71fd77e4003dd461f3de0fe5493b9b51f1376faa.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-01-03 05:21:25</t>
   </si>
   <si>
-    <t>95a35f09-e89c-454a-8198-ed99a1000a43.md</t>
-  </si>
-  <si>
-    <t>e2e\95a35f09-e89c-454a-8198-ed99a1000a43.md</t>
-  </si>
-  <si>
-    <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
-  </si>
-  <si>
-    <t>e2e\b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:07:32</t>
-  </si>
-  <si>
-    <t>d0754f14-bc76-477a-bded-55bcf43e9067.md</t>
-  </si>
-  <si>
-    <t>e2e\d0754f14-bc76-477a-bded-55bcf43e9067.md</t>
-  </si>
-  <si>
-    <t>ded74131-e733-43b7-beb7-f12e292e4db0.md</t>
-  </si>
-  <si>
-    <t>e2e\ded74131-e733-43b7-beb7-f12e292e4db0.md</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:15:00</t>
-  </si>
-  <si>
-    <t>ee297185-0648-461d-956d-583a598627ba.md</t>
-  </si>
-  <si>
-    <t>e2e\ee297185-0648-461d-956d-583a598627ba.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>079cde27-4217-4bc7-909e-824630349f84.d40e99ef1cb86c801d00eb9df6b3be34a7d64d29.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:10:25</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-01-03 05:10:59</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>1adfbd5d-9460-4929-a053-a8fb42bed163.7361e34a2b1aa2af3fe2f94a93c713c57bbe1c26.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:18:46</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:19:18</t>
-  </si>
-  <si>
-    <t>API_HB_2017010319</t>
-  </si>
-  <si>
-    <t>34736a26-0446-4066-b590-146bea0c83c7.43e4e2b717dc11c047ea311c75f0200ed2da16df.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:04:50</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:05:21</t>
-  </si>
-  <si>
-    <t>67e2d4ba-8a50-4e78-9378-896c69f2297e.f65a7aa29caa8e3f7fd66041c6481f0f379ccadb.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:15:25</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:16:36</t>
-  </si>
-  <si>
-    <t>6db72158-8511-48cb-bef7-e24a11e33d6f.a0e5ce44109f3350a119be70cdc21df39050f58e.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:17:26</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:17:59</t>
-  </si>
-  <si>
-    <t>Full_HB_2017010317</t>
-  </si>
-  <si>
-    <t>84bd7d91-390f-46b0-b2f7-93752559642f.46789938033b7de46aef47ad8e23587d4f726694.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:20:46</t>
-  </si>
-  <si>
-    <t>API_HB_2017010320</t>
-  </si>
-  <si>
-    <t>84e29cc2-38e2-465f-a283-ffe3d5382cef.fc885b91c6103052189d3100315d7663b4895938.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>87b3b7a0-982d-4cdc-8e2d-6726dd3f3c31.71fd77e4003dd461f3de0fe5493b9b51f1376faa.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2017-01-03 05:21:55</t>
   </si>
   <si>
-    <t>API_HB1_2017010321</t>
+    <t>API_HB2_2017010322</t>
   </si>
   <si>
     <t>95a35f09-e89c-454a-8198-ed99a1000a43.afd0990eef59cca850c92a4158006a9ca794b115.zh-cn.xlf</t>
@@ -358,6 +361,12 @@
     <t>84e29cc2-38e2-465f-a283-ffe3d5382cef.fc885b91c6103052189d3100315d7663b4895938.de-de.xlf</t>
   </si>
   <si>
+    <t>87b3b7a0-982d-4cdc-8e2d-6726dd3f3c31.71fd77e4003dd461f3de0fe5493b9b51f1376faa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:22:22</t>
+  </si>
+  <si>
     <t>b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.6138f134366119bfb878aee22fbb81c4bb396e6b.de-de.xlf</t>
   </si>
   <si>
@@ -371,6 +380,9 @@
   </si>
   <si>
     <t>2017-01-03 05:16:10</t>
+  </si>
+  <si>
+    <t>ee297185-0648-461d-956d-583a598627ba.c42a3df8fd53ab5f249440738efca1a6cd51b219.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -454,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -710,7 +722,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>34</v>
@@ -810,7 +822,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>34</v>
@@ -1395,7 +1407,7 @@
         <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>70</v>
@@ -1407,10 +1419,10 @@
         <v>91</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>70</v>
@@ -1448,7 +1460,7 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>29</v>
@@ -1460,7 +1472,7 @@
         <v>35</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>88</v>
@@ -1504,10 +1516,10 @@
         <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>70</v>
@@ -1516,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>70</v>
@@ -1560,7 +1572,7 @@
         <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>84</v>
@@ -1572,7 +1584,7 @@
         <v>40</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>85</v>
@@ -1616,10 +1628,10 @@
         <v>72</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>70</v>
@@ -1628,10 +1640,10 @@
         <v>42</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>70</v>
@@ -1672,10 +1684,10 @@
         <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>70</v>
@@ -1684,13 +1696,13 @@
         <v>45</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>70</v>
@@ -1748,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1850,7 +1862,7 @@
         <v>67</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1862,10 +1874,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>70</v>
@@ -1906,7 +1918,7 @@
         <v>72</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
@@ -1918,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>76</v>
@@ -1962,7 +1974,7 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -1974,10 +1986,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>70</v>
@@ -2018,7 +2030,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -2030,10 +2042,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>70</v>
@@ -2074,7 +2086,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>22</v>
@@ -2086,10 +2098,10 @@
         <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>70</v>
@@ -2130,7 +2142,7 @@
         <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>25</v>
@@ -2142,10 +2154,10 @@
         <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>86</v>
@@ -2186,7 +2198,7 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>14</v>
@@ -2198,10 +2210,10 @@
         <v>30</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>76</v>
@@ -2224,7 +2236,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -2242,25 +2254,25 @@
         <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>70</v>
@@ -2280,7 +2292,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2298,25 +2310,25 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>70</v>
@@ -2336,7 +2348,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2354,39 +2366,151 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="0" t="s">
+      <c r="K12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2406,12 +2530,16 @@
     <hyperlink ref="J7" display="6db72158-8511-48cb-bef7-e24a11e33d6f.md" r:id="rId13"/>
     <hyperlink ref="A8" display="84e29cc2-38e2-465f-a283-ffe3d5382cef.md" r:id="rId14"/>
     <hyperlink ref="J8" display="84e29cc2-38e2-465f-a283-ffe3d5382cef.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="d0754f14-bc76-477a-bded-55bcf43e9067.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="d0754f14-bc76-477a-bded-55bcf43e9067.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="ded74131-e733-43b7-beb7-f12e292e4db0.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="ded74131-e733-43b7-beb7-f12e292e4db0.md" r:id="rId21"/>
+    <hyperlink ref="A9" display="87b3b7a0-982d-4cdc-8e2d-6726dd3f3c31.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="87b3b7a0-982d-4cdc-8e2d-6726dd3f3c31.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="b4fb0e24-e69d-4879-b0dd-aa8ec7a403b6.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="d0754f14-bc76-477a-bded-55bcf43e9067.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="d0754f14-bc76-477a-bded-55bcf43e9067.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="ded74131-e733-43b7-beb7-f12e292e4db0.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="ded74131-e733-43b7-beb7-f12e292e4db0.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="ee297185-0648-461d-956d-583a598627ba.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="ee297185-0648-461d-956d-583a598627ba.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>d6a5534b-124a-4535-8f3c-cfb62ed6460e.md</t>
-  </si>
-  <si>
-    <t>e2e\d6a5534b-124a-4535-8f3c-cfb62ed6460e.md</t>
+    <t>10bc2547-d7b6-4e32-9693-5ebe9ed9adb8.md</t>
+  </si>
+  <si>
+    <t>e2e\10bc2547-d7b6-4e32-9693-5ebe9ed9adb8.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,7 +49,16 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 05:25:47</t>
+    <t>2017-01-03 05:29:22</t>
+  </si>
+  <si>
+    <t>e64890e6-a884-4969-9091-289243af2a76.md</t>
+  </si>
+  <si>
+    <t>e2e\e64890e6-a884-4969-9091-289243af2a76.md</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:28:52</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,25 +124,34 @@
     <t>False</t>
   </si>
   <si>
-    <t>d6a5534b-124a-4535-8f3c-cfb62ed6460e.a99fa954c34e681f7b56e8fb81b2a7a3bbc97707.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:25:37</t>
+    <t>10bc2547-d7b6-4e32-9693-5ebe9ed9adb8.73d411c1a207f0936430d519db4b1b97ddc13935.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:29:12</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-01-03 05:26:10</t>
+    <t>2017-01-03 05:29:38</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>d6a5534b-124a-4535-8f3c-cfb62ed6460e.a99fa954c34e681f7b56e8fb81b2a7a3bbc97707.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 05:26:21</t>
+    <t>e64890e6-a884-4969-9091-289243af2a76.0aba362954cf6245801076894750dc3228f6aed3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:28:41</t>
+  </si>
+  <si>
+    <t>10bc2547-d7b6-4e32-9693-5ebe9ed9adb8.73d411c1a207f0936430d519db4b1b97ddc13935.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 05:29:50</t>
+  </si>
+  <si>
+    <t>e64890e6-a884-4969-9091-289243af2a76.0aba362954cf6245801076894750dc3228f6aed3.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -190,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +337,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\d6a5534b-124a-4535-8f3c-cfb62ed6460e.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\10bc2547-d7b6-4e32-9693-5ebe9ed9adb8.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\e64890e6-a884-4969-9091-289243af2a76.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +399,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +464,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d6a5534b-124a-4535-8f3c-cfb62ed6460e.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="d6a5534b-124a-4535-8f3c-cfb62ed6460e.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="10bc2547-d7b6-4e32-9693-5ebe9ed9adb8.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="10bc2547-d7b6-4e32-9693-5ebe9ed9adb8.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e64890e6-a884-4969-9091-289243af2a76.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e64890e6-a884-4969-9091-289243af2a76.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +609,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +674,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d6a5534b-124a-4535-8f3c-cfb62ed6460e.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="d6a5534b-124a-4535-8f3c-cfb62ed6460e.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="10bc2547-d7b6-4e32-9693-5ebe9ed9adb8.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="10bc2547-d7b6-4e32-9693-5ebe9ed9adb8.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e64890e6-a884-4969-9091-289243af2a76.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e64890e6-a884-4969-9091-289243af2a76.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,21 @@
     <t>2017-01-03 06:12:35</t>
   </si>
   <si>
+    <t>8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md</t>
+  </si>
+  <si>
+    <t>e2e\8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:13:58</t>
+  </si>
+  <si>
+    <t>e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md</t>
+  </si>
+  <si>
+    <t>e2e\e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +145,31 @@
     <t>True</t>
   </si>
   <si>
+    <t>8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.a0052f26fddc9d5534035e9afeaf0296a0739de7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:13:48</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:14:13</t>
+  </si>
+  <si>
+    <t>e818c6cb-fe6b-4ba4-80b2-21675e1c3238.8e1cf5f4b4d83ef3db63e8d593df289ceaa4f7e9.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>5291b744-22b2-43e0-805c-0ebd1d2f4812.3ffe22affa837af55a895a991517f21689b2bc3f.de-de.xlf</t>
   </si>
   <si>
     <t>2017-01-03 06:13:10</t>
+  </si>
+  <si>
+    <t>8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.a0052f26fddc9d5534035e9afeaf0296a0739de7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:14:25</t>
+  </si>
+  <si>
+    <t>e818c6cb-fe6b-4ba4-80b2-21675e1c3238.8e1cf5f4b4d83ef3db63e8d593df289ceaa4f7e9.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -190,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +355,51 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +438,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +503,171 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId2"/>
     <hyperlink ref="J2" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +678,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +706,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +771,171 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId2"/>
     <hyperlink ref="J2" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -37,36 +37,39 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md</t>
+  </si>
+  <si>
+    <t>e2e\8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:13:58</t>
+  </si>
+  <si>
+    <t>e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md</t>
+  </si>
+  <si>
+    <t>e2e\e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md</t>
+  </si>
+  <si>
     <t>5291b744-22b2-43e0-805c-0ebd1d2f4812.md</t>
   </si>
   <si>
     <t>e2e\5291b744-22b2-43e0-805c-0ebd1d2f4812.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
     <t>2017-01-03 06:12:35</t>
   </si>
   <si>
-    <t>8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md</t>
-  </si>
-  <si>
-    <t>e2e\8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md</t>
-  </si>
-  <si>
-    <t>2017-01-03 06:13:58</t>
-  </si>
-  <si>
-    <t>e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md</t>
-  </si>
-  <si>
-    <t>e2e\e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,46 +133,52 @@
     <t>False</t>
   </si>
   <si>
+    <t>8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.a0052f26fddc9d5534035e9afeaf0296a0739de7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:13:48</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-01-03 06:15:28</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>e818c6cb-fe6b-4ba4-80b2-21675e1c3238.8e1cf5f4b4d83ef3db63e8d593df289ceaa4f7e9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:14:13</t>
+  </si>
+  <si>
     <t>5291b744-22b2-43e0-805c-0ebd1d2f4812.3ffe22affa837af55a895a991517f21689b2bc3f.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-01-03 06:12:24</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2017-01-03 06:12:57</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.a0052f26fddc9d5534035e9afeaf0296a0739de7.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 06:13:48</t>
-  </si>
-  <si>
-    <t>2017-01-03 06:14:13</t>
-  </si>
-  <si>
-    <t>e818c6cb-fe6b-4ba4-80b2-21675e1c3238.8e1cf5f4b4d83ef3db63e8d593df289ceaa4f7e9.zh-cn.xlf</t>
+    <t>8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.a0052f26fddc9d5534035e9afeaf0296a0739de7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:15:39</t>
+  </si>
+  <si>
+    <t>e818c6cb-fe6b-4ba4-80b2-21675e1c3238.8e1cf5f4b4d83ef3db63e8d593df289ceaa4f7e9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:14:25</t>
   </si>
   <si>
     <t>5291b744-22b2-43e0-805c-0ebd1d2f4812.3ffe22affa837af55a895a991517f21689b2bc3f.de-de.xlf</t>
   </si>
   <si>
     <t>2017-01-03 06:13:10</t>
-  </si>
-  <si>
-    <t>8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.a0052f26fddc9d5534035e9afeaf0296a0739de7.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 06:14:25</t>
-  </si>
-  <si>
-    <t>e818c6cb-fe6b-4ba4-80b2-21675e1c3238.8e1cf5f4b4d83ef3db63e8d593df289ceaa4f7e9.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -307,8 +316,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -372,34 +381,34 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -418,7 +427,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -438,58 +447,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -503,49 +512,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -559,115 +568,115 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -686,7 +695,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -706,58 +715,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -771,49 +780,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -827,115 +836,115 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="8fc3a59f-cd1b-4ba4-96b9-0d69d1937d29.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e818c6cb-fe6b-4ba4-80b2-21675e1c3238.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="5291b744-22b2-43e0-805c-0ebd1d2f4812.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 06:38:43</t>
+    <t>2017-01-03 06:41:13</t>
   </si>
   <si>
     <t>bdf8b512-b817-4cea-aa02-18916301bf84.md</t>
@@ -64,9 +64,6 @@
     <t>e2e\c6e5b3a9-2da0-465d-ae5b-36d704bd0549.md</t>
   </si>
   <si>
-    <t>2017-01-03 06:39:55</t>
-  </si>
-  <si>
     <t>cb4c496c-cdfa-435c-91ab-1fc709eba761.md</t>
   </si>
   <si>
@@ -130,18 +127,21 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>00835390-a0a1-4b81-8503-ee27adf5b5ca.57f9f700d1b4004578911dbcc38ac5af130eec4a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:40:59</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>00835390-a0a1-4b81-8503-ee27adf5b5ca.57f9f700d1b4004578911dbcc38ac5af130eec4a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 06:38:34</t>
-  </si>
-  <si>
     <t>2017-01-03 06:38:58</t>
   </si>
   <si>
@@ -151,16 +151,10 @@
     <t>bdf8b512-b817-4cea-aa02-18916301bf84.535bdd5bd854bcd286e6f9608ebca060d514b04f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>ht</t>
-  </si>
-  <si>
     <t>c6e5b3a9-2da0-465d-ae5b-36d704bd0549.cc0cd7d6fe8f940de3546e8fb942939518564fa1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 06:39:43</t>
-  </si>
-  <si>
-    <t>2017-01-03 06:40:17</t>
+    <t>2017-01-03 06:41:32</t>
   </si>
   <si>
     <t>cb4c496c-cdfa-435c-91ab-1fc709eba761.5f6226d2feadd881153a9af9f3ed69b7795b8bfc.zh-cn.xlf</t>
@@ -178,7 +172,7 @@
     <t>c6e5b3a9-2da0-465d-ae5b-36d704bd0549.cc0cd7d6fe8f940de3546e8fb942939518564fa1.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 06:40:28</t>
+    <t>2017-01-03 06:41:45</t>
   </si>
   <si>
     <t>cb4c496c-cdfa-435c-91ab-1fc709eba761.5f6226d2feadd881153a9af9f3ed69b7795b8bfc.de-de.xlf</t>
@@ -404,16 +398,16 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
@@ -424,7 +418,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -471,58 +465,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -536,49 +530,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -592,10 +586,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>43</v>
@@ -604,10 +598,10 @@
         <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -619,22 +613,22 @@
         <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -648,54 +642,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -704,49 +698,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="L5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -797,58 +791,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -862,49 +856,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -918,49 +912,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -974,54 +968,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1030,49 +1024,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,36 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>37bb1a29-847e-4266-9603-5bed10b929b7.md</t>
+  </si>
+  <si>
+    <t>e2e\37bb1a29-847e-4266-9603-5bed10b929b7.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:52:04</t>
+  </si>
+  <si>
     <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md</t>
   </si>
   <si>
     <t>e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-01-03 06:50:46</t>
   </si>
   <si>
+    <t>e58f67ba-6648-4398-9cd9-dcfe669e266d.md</t>
+  </si>
+  <si>
+    <t>e2e\e58f67ba-6648-4398-9cd9-dcfe669e266d.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -115,25 +130,46 @@
     <t>False</t>
   </si>
   <si>
+    <t>37bb1a29-847e-4266-9603-5bed10b929b7.a011f0f176be5d375ea234730108d53705311b63.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:51:55</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-01-03 06:52:20</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.e885cba4737a788a3cc1b4f6e196cbcd2535cd92.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-01-03 06:50:33</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2017-01-03 06:51:03</t>
   </si>
   <si>
-    <t>True</t>
+    <t>e58f67ba-6648-4398-9cd9-dcfe669e266d.388121f054ffda0027337c554c08b7bc8b070fd8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>37bb1a29-847e-4266-9603-5bed10b929b7.a011f0f176be5d375ea234730108d53705311b63.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:52:32</t>
   </si>
   <si>
     <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.e885cba4737a788a3cc1b4f6e196cbcd2535cd92.de-de.xlf</t>
   </si>
   <si>
     <t>2017-01-03 06:51:15</t>
+  </si>
+  <si>
+    <t>e58f67ba-6648-4398-9cd9-dcfe669e266d.388121f054ffda0027337c554c08b7bc8b070fd8.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -190,8 +226,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +253,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +280,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +355,51 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +438,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +503,171 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +678,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +706,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +771,171 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="E4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R4" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>File Name</t>
   </si>
@@ -46,27 +46,30 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:52:04</t>
+  </si>
+  <si>
+    <t>e58f67ba-6648-4398-9cd9-dcfe669e266d.md</t>
+  </si>
+  <si>
+    <t>e2e\e58f67ba-6648-4398-9cd9-dcfe669e266d.md</t>
+  </si>
+  <si>
+    <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md</t>
+  </si>
+  <si>
+    <t>e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 06:52:04</t>
-  </si>
-  <si>
-    <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md</t>
-  </si>
-  <si>
-    <t>e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md</t>
-  </si>
-  <si>
     <t>2017-01-03 06:50:46</t>
   </si>
   <si>
-    <t>e58f67ba-6648-4398-9cd9-dcfe669e266d.md</t>
-  </si>
-  <si>
-    <t>e2e\e58f67ba-6648-4398-9cd9-dcfe669e266d.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -145,6 +148,12 @@
     <t>True</t>
   </si>
   <si>
+    <t>e58f67ba-6648-4398-9cd9-dcfe669e266d.388121f054ffda0027337c554c08b7bc8b070fd8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:53:32</t>
+  </si>
+  <si>
     <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.e885cba4737a788a3cc1b4f6e196cbcd2535cd92.zh-cn.xlf</t>
   </si>
   <si>
@@ -154,22 +163,22 @@
     <t>2017-01-03 06:51:03</t>
   </si>
   <si>
-    <t>e58f67ba-6648-4398-9cd9-dcfe669e266d.388121f054ffda0027337c554c08b7bc8b070fd8.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>37bb1a29-847e-4266-9603-5bed10b929b7.a011f0f176be5d375ea234730108d53705311b63.de-de.xlf</t>
   </si>
   <si>
     <t>2017-01-03 06:52:32</t>
   </si>
   <si>
+    <t>e58f67ba-6648-4398-9cd9-dcfe669e266d.388121f054ffda0027337c554c08b7bc8b070fd8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:53:42</t>
+  </si>
+  <si>
     <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.e885cba4737a788a3cc1b4f6e196cbcd2535cd92.de-de.xlf</t>
   </si>
   <si>
     <t>2017-01-03 06:51:15</t>
-  </si>
-  <si>
-    <t>e58f67ba-6648-4398-9cd9-dcfe669e266d.388121f054ffda0027337c554c08b7bc8b070fd8.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -307,8 +316,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -372,34 +381,34 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId4"/>
+    <hyperlink ref="B3" display="e2e\e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -418,7 +427,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -438,58 +447,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -503,49 +512,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -559,115 +568,115 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>46</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId2"/>
     <hyperlink ref="J2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -686,7 +695,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -706,58 +715,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -771,49 +780,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -827,115 +836,115 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId2"/>
     <hyperlink ref="J2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId7"/>
+    <hyperlink ref="A3" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>File Name</t>
   </si>
@@ -58,18 +58,45 @@
     <t>e2e\e58f67ba-6648-4398-9cd9-dcfe669e266d.md</t>
   </si>
   <si>
+    <t>4619e330-d40b-4cf8-90a3-e77b7d6aebc5.md</t>
+  </si>
+  <si>
+    <t>e2e\4619e330-d40b-4cf8-90a3-e77b7d6aebc5.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:54:24</t>
+  </si>
+  <si>
+    <t>6c6ffaf8-fe77-4e98-b7fd-a642c5b1ef55.md</t>
+  </si>
+  <si>
+    <t>e2e\6c6ffaf8-fe77-4e98-b7fd-a642c5b1ef55.md</t>
+  </si>
+  <si>
+    <t>8f396687-5737-44e4-ad39-73efc2f6f4a0.md</t>
+  </si>
+  <si>
+    <t>e2e\8f396687-5737-44e4-ad39-73efc2f6f4a0.md</t>
+  </si>
+  <si>
     <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md</t>
   </si>
   <si>
     <t>e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-01-03 06:50:46</t>
   </si>
   <si>
+    <t>f8ffd369-4b55-4bb0-8002-429226872d11.md</t>
+  </si>
+  <si>
+    <t>e2e\f8ffd369-4b55-4bb0-8002-429226872d11.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -154,6 +181,21 @@
     <t>2017-01-03 06:53:32</t>
   </si>
   <si>
+    <t>4619e330-d40b-4cf8-90a3-e77b7d6aebc5.6474d1b719bfff810503b1d4a64c8be6dbf0436a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:54:12</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:54:59</t>
+  </si>
+  <si>
+    <t>6c6ffaf8-fe77-4e98-b7fd-a642c5b1ef55.35e9c5696bf08576a397dd228d4b39986dd84e35.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8f396687-5737-44e4-ad39-73efc2f6f4a0.ac9f374dd361caf2570a87961871fd64e635c3cd.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.e885cba4737a788a3cc1b4f6e196cbcd2535cd92.zh-cn.xlf</t>
   </si>
   <si>
@@ -163,6 +205,9 @@
     <t>2017-01-03 06:51:03</t>
   </si>
   <si>
+    <t>f8ffd369-4b55-4bb0-8002-429226872d11.509926a7acf7800022b2a69cd9641398dc7f7a6f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>37bb1a29-847e-4266-9603-5bed10b929b7.a011f0f176be5d375ea234730108d53705311b63.de-de.xlf</t>
   </si>
   <si>
@@ -175,10 +220,25 @@
     <t>2017-01-03 06:53:42</t>
   </si>
   <si>
+    <t>4619e330-d40b-4cf8-90a3-e77b7d6aebc5.6474d1b719bfff810503b1d4a64c8be6dbf0436a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 06:55:11</t>
+  </si>
+  <si>
+    <t>6c6ffaf8-fe77-4e98-b7fd-a642c5b1ef55.35e9c5696bf08576a397dd228d4b39986dd84e35.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8f396687-5737-44e4-ad39-73efc2f6f4a0.ac9f374dd361caf2570a87961871fd64e635c3cd.de-de.xlf</t>
+  </si>
+  <si>
     <t>e4aafc05-2934-4fd0-8067-1f58e1c1dae1.e885cba4737a788a3cc1b4f6e196cbcd2535cd92.de-de.xlf</t>
   </si>
   <si>
     <t>2017-01-03 06:51:15</t>
+  </si>
+  <si>
+    <t>f8ffd369-4b55-4bb0-8002-429226872d11.509926a7acf7800022b2a69cd9641398dc7f7a6f.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -235,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -262,8 +322,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -289,8 +349,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G8" headerRowCount="1">
+  <autoFilter ref="A1:G8"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -306,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -404,11 +464,95 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId4"/>
+    <hyperlink ref="B4" display="e2e\4619e330-d40b-4cf8-90a3-e77b7d6aebc5.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\6c6ffaf8-fe77-4e98-b7fd-a642c5b1ef55.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\8f396687-5737-44e4-ad39-73efc2f6f4a0.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\f8ffd369-4b55-4bb0-8002-429226872d11.md" r:id="rId8"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -419,7 +563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -447,58 +591,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -512,49 +656,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -568,49 +712,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -624,49 +768,273 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>41</v>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +1043,16 @@
     <hyperlink ref="J2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId3"/>
     <hyperlink ref="A3" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId4"/>
     <hyperlink ref="J3" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="4619e330-d40b-4cf8-90a3-e77b7d6aebc5.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4619e330-d40b-4cf8-90a3-e77b7d6aebc5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="6c6ffaf8-fe77-4e98-b7fd-a642c5b1ef55.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="6c6ffaf8-fe77-4e98-b7fd-a642c5b1ef55.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="8f396687-5737-44e4-ad39-73efc2f6f4a0.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="8f396687-5737-44e4-ad39-73efc2f6f4a0.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="f8ffd369-4b55-4bb0-8002-429226872d11.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="f8ffd369-4b55-4bb0-8002-429226872d11.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -687,7 +1063,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,58 +1091,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -780,49 +1156,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -836,49 +1212,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -892,49 +1268,273 @@
         <v>16</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -943,8 +1543,16 @@
     <hyperlink ref="J2" display="37bb1a29-847e-4266-9603-5bed10b929b7.md" r:id="rId3"/>
     <hyperlink ref="A3" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId4"/>
     <hyperlink ref="J3" display="e58f67ba-6648-4398-9cd9-dcfe669e266d.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId7"/>
+    <hyperlink ref="A4" display="4619e330-d40b-4cf8-90a3-e77b7d6aebc5.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4619e330-d40b-4cf8-90a3-e77b7d6aebc5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="6c6ffaf8-fe77-4e98-b7fd-a642c5b1ef55.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="6c6ffaf8-fe77-4e98-b7fd-a642c5b1ef55.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="8f396687-5737-44e4-ad39-73efc2f6f4a0.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="8f396687-5737-44e4-ad39-73efc2f6f4a0.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="e4aafc05-2934-4fd0-8067-1f58e1c1dae1.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="f8ffd369-4b55-4bb0-8002-429226872d11.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="f8ffd369-4b55-4bb0-8002-429226872d11.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:14:37</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 07:14:37</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-01-03 07:16:48</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-01-03 07:16:37</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:17:37</t>
+  </si>
+  <si>
+    <t>TestHandback_201701030717</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-01-03 07:15:07</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:17:48</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850729806083" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -79,6 +79,9 @@
     <t>e2e\cc58bce8-649e-473c-9bf0-bd9dfda0c66b.md</t>
   </si>
   <si>
+    <t>2017-01-03 07:36:37</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -172,6 +175,12 @@
     <t>cc58bce8-649e-473c-9bf0-bd9dfda0c66b.62268b98850edaddf20b321b6e7e7748e3c7818d.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-01-03 07:36:25</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:36:57</t>
+  </si>
+  <si>
     <t>2017-01-03 07:35:51</t>
   </si>
   <si>
@@ -182,6 +191,9 @@
   </si>
   <si>
     <t>cc58bce8-649e-473c-9bf0-bd9dfda0c66b.62268b98850edaddf20b321b6e7e7748e3c7818d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:37:09</t>
   </si>
 </sst>
 </file>
@@ -444,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,49 +625,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -669,49 +681,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -725,49 +737,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,49 +1009,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1053,49 +1065,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -1109,49 +1121,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>File Name</t>
   </si>
@@ -37,28 +37,28 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>175181f9-9d3a-4b41-82b7-b81c940a5de6.md</t>
+  </si>
+  <si>
+    <t>e2e\175181f9-9d3a-4b41-82b7-b81c940a5de6.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:45:20</t>
+  </si>
+  <si>
     <t>1a52eea9-aa13-477f-a79c-6b5531652df1.md</t>
   </si>
   <si>
     <t>e2e\1a52eea9-aa13-477f-a79c-6b5531652df1.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:45:20</t>
-  </si>
-  <si>
-    <t>175181f9-9d3a-4b41-82b7-b81c940a5de6.md</t>
-  </si>
-  <si>
-    <t>e2e\175181f9-9d3a-4b41-82b7-b81c940a5de6.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
+    <t>2017-01-03 07:45:56</t>
   </si>
   <si>
     <t>2d98dca6-dec9-4166-8e78-1373b653e710.md</t>
@@ -157,22 +157,28 @@
     <t>False</t>
   </si>
   <si>
+    <t>175181f9-9d3a-4b41-82b7-b81c940a5de6.a67ad21c36bd7264f70e9f4c1701db623cd2e42a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:45:08</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-01-03 07:46:19</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>1a52eea9-aa13-477f-a79c-6b5531652df1.763d0eedb6636648470e98495e44bb7de679801b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 07:45:08</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-01-03 07:46:19</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>175181f9-9d3a-4b41-82b7-b81c940a5de6.a67ad21c36bd7264f70e9f4c1701db623cd2e42a.zh-cn.xlf</t>
+    <t>2017-01-03 07:45:44</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:46:56</t>
   </si>
   <si>
     <t>2d98dca6-dec9-4166-8e78-1373b653e710.8074c03a01e44705b2b24d709fbfa83876d03026.zh-cn.xlf</t>
@@ -202,13 +208,16 @@
     <t>2017-01-03 07:38:12</t>
   </si>
   <si>
+    <t>175181f9-9d3a-4b41-82b7-b81c940a5de6.a67ad21c36bd7264f70e9f4c1701db623cd2e42a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:46:31</t>
+  </si>
+  <si>
     <t>1a52eea9-aa13-477f-a79c-6b5531652df1.763d0eedb6636648470e98495e44bb7de679801b.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 07:46:31</t>
-  </si>
-  <si>
-    <t>175181f9-9d3a-4b41-82b7-b81c940a5de6.a67ad21c36bd7264f70e9f4c1701db623cd2e42a.de-de.xlf</t>
+    <t>2017-01-03 07:47:08</t>
   </si>
   <si>
     <t>2d98dca6-dec9-4166-8e78-1373b653e710.8074c03a01e44705b2b24d709fbfa83876d03026.de-de.xlf</t>
@@ -364,8 +373,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -423,13 +432,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -443,10 +452,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>17</v>
@@ -463,10 +472,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>20</v>
@@ -483,10 +492,10 @@
         <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>17</v>
@@ -503,10 +512,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>25</v>
@@ -514,8 +523,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\2d98dca6-dec9-4166-8e78-1373b653e710.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\38823429-15bc-4ce8-bb92-bcf1c26fb883.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\8ee22d49-59af-4c47-8367-fc82f2e64a12.md" r:id="rId6"/>
@@ -538,7 +547,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -676,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>44</v>
@@ -691,7 +700,7 @@
         <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>49</v>
@@ -703,7 +712,7 @@
         <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>49</v>
@@ -732,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>44</v>
@@ -744,10 +753,10 @@
         <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>49</v>
@@ -756,10 +765,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>49</v>
@@ -788,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>44</v>
@@ -800,10 +809,10 @@
         <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>49</v>
@@ -812,10 +821,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>49</v>
@@ -844,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -856,10 +865,10 @@
         <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>49</v>
@@ -868,10 +877,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>49</v>
@@ -900,7 +909,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -912,10 +921,10 @@
         <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>49</v>
@@ -924,10 +933,10 @@
         <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>49</v>
@@ -950,10 +959,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId5"/>
     <hyperlink ref="A4" display="2d98dca6-dec9-4166-8e78-1373b653e710.md" r:id="rId6"/>
     <hyperlink ref="J4" display="2d98dca6-dec9-4166-8e78-1373b653e710.md" r:id="rId7"/>
     <hyperlink ref="A5" display="38823429-15bc-4ce8-bb92-bcf1c26fb883.md" r:id="rId8"/>
@@ -980,7 +989,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -1074,7 +1083,7 @@
         <v>46</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1086,10 +1095,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>49</v>
@@ -1118,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>44</v>
@@ -1130,10 +1139,10 @@
         <v>51</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>49</v>
@@ -1142,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>49</v>
@@ -1174,7 +1183,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>44</v>
@@ -1186,7 +1195,7 @@
         <v>51</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -1198,10 +1207,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>49</v>
@@ -1230,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>44</v>
@@ -1242,7 +1251,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -1254,10 +1263,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>49</v>
@@ -1286,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>44</v>
@@ -1298,7 +1307,7 @@
         <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>17</v>
@@ -1310,10 +1319,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>49</v>
@@ -1342,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>44</v>
@@ -1354,7 +1363,7 @@
         <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>25</v>
@@ -1366,10 +1375,10 @@
         <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>49</v>
@@ -1392,10 +1401,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="175181f9-9d3a-4b41-82b7-b81c940a5de6.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1a52eea9-aa13-477f-a79c-6b5531652df1.md" r:id="rId5"/>
     <hyperlink ref="A4" display="2d98dca6-dec9-4166-8e78-1373b653e710.md" r:id="rId6"/>
     <hyperlink ref="J4" display="2d98dca6-dec9-4166-8e78-1373b653e710.md" r:id="rId7"/>
     <hyperlink ref="A5" display="38823429-15bc-4ce8-bb92-bcf1c26fb883.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>File Name</t>
   </si>
@@ -127,184 +127,187 @@
     <t>e2e\9315b229-eabe-4dc2-ad5d-73996d785a22.md</t>
   </si>
   <si>
+    <t>2017-01-03 07:52:00</t>
+  </si>
+  <si>
+    <t>96353164-0338-460d-9534-6c75e99dcdd1.md</t>
+  </si>
+  <si>
+    <t>e2e\96353164-0338-460d-9534-6c75e99dcdd1.md</t>
+  </si>
+  <si>
+    <t>a114e3a2-c8c1-4bdc-989e-5580c7f2b62d.md</t>
+  </si>
+  <si>
+    <t>e2e\a114e3a2-c8c1-4bdc-989e-5580c7f2b62d.md</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:37:51</t>
+  </si>
+  <si>
+    <t>e2d1b9f5-9801-42b4-bc62-047aa65719c0.md</t>
+  </si>
+  <si>
+    <t>e2e\e2d1b9f5-9801-42b4-bc62-047aa65719c0.md</t>
+  </si>
+  <si>
+    <t>e2d6db6d-90cc-4d56-96e2-b535b13f549d.md</t>
+  </si>
+  <si>
+    <t>e2e\e2d6db6d-90cc-4d56-96e2-b535b13f549d.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>175181f9-9d3a-4b41-82b7-b81c940a5de6.a67ad21c36bd7264f70e9f4c1701db623cd2e42a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:45:08</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-01-03 07:46:19</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>1a52eea9-aa13-477f-a79c-6b5531652df1.763d0eedb6636648470e98495e44bb7de679801b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:45:44</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:46:56</t>
+  </si>
+  <si>
+    <t>2d98dca6-dec9-4166-8e78-1373b653e710.8074c03a01e44705b2b24d709fbfa83876d03026.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:40:45</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:41:18</t>
+  </si>
+  <si>
+    <t>36b18ef4-a998-4bdc-9902-39e7df46e401.726f3fbaef2decb6a0e5b439fb6d003ac7bb2f95.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:49:05</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:49:36</t>
+  </si>
+  <si>
+    <t>API_HB_2017010350</t>
+  </si>
+  <si>
+    <t>38823429-15bc-4ce8-bb92-bcf1c26fb883.a728d7b01ec0c2c371773d7b22a2d1f599abc851.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:35:07</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:35:39</t>
+  </si>
+  <si>
+    <t>81945720-a1b6-4aa0-b0af-f9c0f4549faa.c1cf3234cc15098bd48fdf1af4380f2797db37fd.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:47:45</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:48:17</t>
+  </si>
+  <si>
+    <t>Full_HB_2017010348</t>
+  </si>
+  <si>
+    <t>86044903-b510-446a-afda-2e809b1dec76.99473382b95f234fc5b3ef7f5efd49c6d14f904b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>87f921a6-2f2d-4e62-ae85-de955e56210e.07f5851a9a0b39ec1ddd774ef2b0bf80d3efb226.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:51:07</t>
+  </si>
+  <si>
+    <t>API_HB_2017010351</t>
+  </si>
+  <si>
+    <t>9315b229-eabe-4dc2-ad5d-73996d785a22.6e8ade756c159793532516853ff269b747bc3075.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-01-03 07:51:46</t>
   </si>
   <si>
-    <t>96353164-0338-460d-9534-6c75e99dcdd1.md</t>
-  </si>
-  <si>
-    <t>e2e\96353164-0338-460d-9534-6c75e99dcdd1.md</t>
-  </si>
-  <si>
-    <t>a114e3a2-c8c1-4bdc-989e-5580c7f2b62d.md</t>
-  </si>
-  <si>
-    <t>e2e\a114e3a2-c8c1-4bdc-989e-5580c7f2b62d.md</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:37:51</t>
-  </si>
-  <si>
-    <t>e2d1b9f5-9801-42b4-bc62-047aa65719c0.md</t>
-  </si>
-  <si>
-    <t>e2e\e2d1b9f5-9801-42b4-bc62-047aa65719c0.md</t>
-  </si>
-  <si>
-    <t>e2d6db6d-90cc-4d56-96e2-b535b13f549d.md</t>
-  </si>
-  <si>
-    <t>e2e\e2d6db6d-90cc-4d56-96e2-b535b13f549d.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>175181f9-9d3a-4b41-82b7-b81c940a5de6.a67ad21c36bd7264f70e9f4c1701db623cd2e42a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:45:08</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-01-03 07:46:19</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>1a52eea9-aa13-477f-a79c-6b5531652df1.763d0eedb6636648470e98495e44bb7de679801b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:45:44</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:46:56</t>
-  </si>
-  <si>
-    <t>2d98dca6-dec9-4166-8e78-1373b653e710.8074c03a01e44705b2b24d709fbfa83876d03026.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:40:45</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:41:18</t>
-  </si>
-  <si>
-    <t>36b18ef4-a998-4bdc-9902-39e7df46e401.726f3fbaef2decb6a0e5b439fb6d003ac7bb2f95.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:49:05</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:49:36</t>
-  </si>
-  <si>
-    <t>API_HB_2017010350</t>
-  </si>
-  <si>
-    <t>38823429-15bc-4ce8-bb92-bcf1c26fb883.a728d7b01ec0c2c371773d7b22a2d1f599abc851.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:35:07</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:35:39</t>
-  </si>
-  <si>
-    <t>81945720-a1b6-4aa0-b0af-f9c0f4549faa.c1cf3234cc15098bd48fdf1af4380f2797db37fd.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:47:45</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:48:17</t>
-  </si>
-  <si>
-    <t>Full_HB_2017010348</t>
-  </si>
-  <si>
-    <t>86044903-b510-446a-afda-2e809b1dec76.99473382b95f234fc5b3ef7f5efd49c6d14f904b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>87f921a6-2f2d-4e62-ae85-de955e56210e.07f5851a9a0b39ec1ddd774ef2b0bf80d3efb226.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 07:51:07</t>
-  </si>
-  <si>
-    <t>API_HB_2017010351</t>
-  </si>
-  <si>
-    <t>9315b229-eabe-4dc2-ad5d-73996d785a22.6e8ade756c159793532516853ff269b747bc3075.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2017-01-03 07:52:16</t>
   </si>
   <si>
-    <t>API_HB1_2017010352</t>
+    <t>API_HB2_2017010352</t>
   </si>
   <si>
     <t>96353164-0338-460d-9534-6c75e99dcdd1.272aad2c5b6cee14e2c2801d62231a119f76a7db.zh-cn.xlf</t>
@@ -362,6 +365,15 @@
   </si>
   <si>
     <t>86044903-b510-446a-afda-2e809b1dec76.99473382b95f234fc5b3ef7f5efd49c6d14f904b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>9315b229-eabe-4dc2-ad5d-73996d785a22.6e8ade756c159793532516853ff269b747bc3075.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 07:52:44</t>
+  </si>
+  <si>
+    <t>96353164-0338-460d-9534-6c75e99dcdd1.272aad2c5b6cee14e2c2801d62231a119f76a7db.de-de.xlf</t>
   </si>
   <si>
     <t>a114e3a2-c8c1-4bdc-989e-5580c7f2b62d.c70faa1372e42559441af849f6b2cf9cafd454d0.de-de.xlf</t>
@@ -454,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -730,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>37</v>
@@ -750,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>37</v>
@@ -1451,7 +1463,7 @@
         <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>70</v>
@@ -1463,10 +1475,10 @@
         <v>94</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>70</v>
@@ -1504,10 +1516,10 @@
         <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>70</v>
@@ -1516,13 +1528,13 @@
         <v>38</v>
       </c>
       <c r="K12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="0" t="s">
         <v>97</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>96</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>70</v>
@@ -1560,10 +1572,10 @@
         <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>70</v>
@@ -1572,10 +1584,10 @@
         <v>40</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>70</v>
@@ -1616,7 +1628,7 @@
         <v>72</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>32</v>
@@ -1628,7 +1640,7 @@
         <v>43</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>92</v>
@@ -1672,7 +1684,7 @@
         <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>87</v>
@@ -1684,7 +1696,7 @@
         <v>45</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>88</v>
@@ -1748,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1850,7 +1862,7 @@
         <v>67</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1862,10 +1874,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>70</v>
@@ -1906,7 +1918,7 @@
         <v>72</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
@@ -1918,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>70</v>
@@ -1962,7 +1974,7 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
@@ -1974,10 +1986,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>70</v>
@@ -2018,7 +2030,7 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>20</v>
@@ -2030,10 +2042,10 @@
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>82</v>
@@ -2074,7 +2086,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>23</v>
@@ -2086,10 +2098,10 @@
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>70</v>
@@ -2130,7 +2142,7 @@
         <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>26</v>
@@ -2142,10 +2154,10 @@
         <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>89</v>
@@ -2186,7 +2198,7 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>20</v>
@@ -2198,10 +2210,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>82</v>
@@ -2242,7 +2254,7 @@
         <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
@@ -2254,10 +2266,10 @@
         <v>33</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>70</v>
@@ -2280,7 +2292,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2298,25 +2310,25 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>70</v>
@@ -2336,7 +2348,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2354,39 +2366,151 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="M11" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="0" t="s">
+      <c r="K13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="0" t="s">
+      <c r="N13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2408,10 +2532,14 @@
     <hyperlink ref="J8" display="86044903-b510-446a-afda-2e809b1dec76.md" r:id="rId15"/>
     <hyperlink ref="A9" display="8ee22d49-59af-4c47-8367-fc82f2e64a12.md" r:id="rId16"/>
     <hyperlink ref="J9" display="8ee22d49-59af-4c47-8367-fc82f2e64a12.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="a114e3a2-c8c1-4bdc-989e-5580c7f2b62d.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="a114e3a2-c8c1-4bdc-989e-5580c7f2b62d.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="e2d6db6d-90cc-4d56-96e2-b535b13f549d.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="e2d6db6d-90cc-4d56-96e2-b535b13f549d.md" r:id="rId21"/>
+    <hyperlink ref="A10" display="9315b229-eabe-4dc2-ad5d-73996d785a22.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="9315b229-eabe-4dc2-ad5d-73996d785a22.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="96353164-0338-460d-9534-6c75e99dcdd1.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="96353164-0338-460d-9534-6c75e99dcdd1.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="a114e3a2-c8c1-4bdc-989e-5580c7f2b62d.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="a114e3a2-c8c1-4bdc-989e-5580c7f2b62d.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="e2d6db6d-90cc-4d56-96e2-b535b13f549d.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="e2d6db6d-90cc-4d56-96e2-b535b13f549d.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>0285a509-5aff-4bc5-8dd6-026bd4cbee95.md</t>
-  </si>
-  <si>
-    <t>e2e\0285a509-5aff-4bc5-8dd6-026bd4cbee95.md</t>
+    <t>046c4de4-13fc-4e10-9864-81ba3df330e1.md</t>
+  </si>
+  <si>
+    <t>e2e\046c4de4-13fc-4e10-9864-81ba3df330e1.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,16 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 08:01:43</t>
-  </si>
-  <si>
-    <t>524a491c-061d-4c1d-8380-53bcee18b327.md</t>
-  </si>
-  <si>
-    <t>e2e\524a491c-061d-4c1d-8380-53bcee18b327.md</t>
-  </si>
-  <si>
-    <t>2017-01-03 08:02:23</t>
+    <t>2017-01-03 08:05:38</t>
+  </si>
+  <si>
+    <t>556897de-3e1b-4377-bad9-7449368134b2.md</t>
+  </si>
+  <si>
+    <t>e2e\556897de-3e1b-4377-bad9-7449368134b2.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -124,34 +121,31 @@
     <t>False</t>
   </si>
   <si>
-    <t>0285a509-5aff-4bc5-8dd6-026bd4cbee95.886c1a9c384db6d45f741204d04712a99ffc4d13.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 08:01:32</t>
+    <t>046c4de4-13fc-4e10-9864-81ba3df330e1.f84d9ad0230b065b19df5dd4c7d41101f82540aa.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 08:05:27</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-01-03 08:02:39</t>
+    <t>2017-01-03 08:05:52</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>524a491c-061d-4c1d-8380-53bcee18b327.cff4c7f4884061edbb498811394ad2e530415528.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 08:02:13</t>
-  </si>
-  <si>
-    <t>0285a509-5aff-4bc5-8dd6-026bd4cbee95.886c1a9c384db6d45f741204d04712a99ffc4d13.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 08:02:51</t>
-  </si>
-  <si>
-    <t>524a491c-061d-4c1d-8380-53bcee18b327.cff4c7f4884061edbb498811394ad2e530415528.de-de.xlf</t>
+    <t>556897de-3e1b-4377-bad9-7449368134b2.de5f36f0d2c74568889a57a838b1275a59824a85.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>046c4de4-13fc-4e10-9864-81ba3df330e1.f84d9ad0230b065b19df5dd4c7d41101f82540aa.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 08:06:04</t>
+  </si>
+  <si>
+    <t>556897de-3e1b-4377-bad9-7449368134b2.de5f36f0d2c74568889a57a838b1275a59824a85.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -354,13 +348,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\0285a509-5aff-4bc5-8dd6-026bd4cbee95.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\524a491c-061d-4c1d-8380-53bcee18b327.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -399,58 +393,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -464,49 +458,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -520,57 +514,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0285a509-5aff-4bc5-8dd6-026bd4cbee95.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="0285a509-5aff-4bc5-8dd6-026bd4cbee95.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="524a491c-061d-4c1d-8380-53bcee18b327.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="524a491c-061d-4c1d-8380-53bcee18b327.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -609,58 +603,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -674,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -730,57 +724,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="0285a509-5aff-4bc5-8dd6-026bd4cbee95.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="0285a509-5aff-4bc5-8dd6-026bd4cbee95.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="524a491c-061d-4c1d-8380-53bcee18b327.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="524a491c-061d-4c1d-8380-53bcee18b327.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>046c4de4-13fc-4e10-9864-81ba3df330e1.md</t>
-  </si>
-  <si>
-    <t>e2e\046c4de4-13fc-4e10-9864-81ba3df330e1.md</t>
+    <t>3e4b9cfa-e88c-4031-80e9-09febb2e63d4.md</t>
+  </si>
+  <si>
+    <t>e2e\3e4b9cfa-e88c-4031-80e9-09febb2e63d4.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,13 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 08:05:38</t>
-  </si>
-  <si>
-    <t>556897de-3e1b-4377-bad9-7449368134b2.md</t>
-  </si>
-  <si>
-    <t>e2e\556897de-3e1b-4377-bad9-7449368134b2.md</t>
+    <t>2017-01-03 08:07:20</t>
+  </si>
+  <si>
+    <t>ffff532e7da8-8e06-4a8e-8b4e-7bd5bc186051.md</t>
+  </si>
+  <si>
+    <t>e2e\ffff532e7da8-8e06-4a8e-8b4e-7bd5bc186051.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,31 +121,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>046c4de4-13fc-4e10-9864-81ba3df330e1.f84d9ad0230b065b19df5dd4c7d41101f82540aa.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 08:05:27</t>
+    <t>3e4b9cfa-e88c-4031-80e9-09febb2e63d4.a6c83b066a3ae09bb2afd8db03a9ed7680c3d691.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 08:07:09</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-01-03 08:05:52</t>
+    <t>2017-01-03 08:07:44</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>556897de-3e1b-4377-bad9-7449368134b2.de5f36f0d2c74568889a57a838b1275a59824a85.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>046c4de4-13fc-4e10-9864-81ba3df330e1.f84d9ad0230b065b19df5dd4c7d41101f82540aa.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 08:06:04</t>
-  </si>
-  <si>
-    <t>556897de-3e1b-4377-bad9-7449368134b2.de5f36f0d2c74568889a57a838b1275a59824a85.de-de.xlf</t>
+    <t>3e4b9cfa-e88c-4031-80e9-09febb2e63d4.a6c83b066a3ae09bb2afd8db03a9ed7680c3d691.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 08:07:57</t>
   </si>
 </sst>
 </file>
@@ -353,8 +347,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\3e4b9cfa-e88c-4031-80e9-09febb2e63d4.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\ffff532e7da8-8e06-4a8e-8b4e-7bd5bc186051.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -523,7 +517,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>36</v>
@@ -535,7 +529,7 @@
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
@@ -561,10 +555,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="3e4b9cfa-e88c-4031-80e9-09febb2e63d4.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="3e4b9cfa-e88c-4031-80e9-09febb2e63d4.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff532e7da8-8e06-4a8e-8b4e-7bd5bc186051.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="ffff532e7da8-8e06-4a8e-8b4e-7bd5bc186051.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -677,7 +671,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -689,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>37</v>
@@ -733,7 +727,7 @@
         <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -745,10 +739,10 @@
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>37</v>
@@ -771,10 +765,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="046c4de4-13fc-4e10-9864-81ba3df330e1.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="556897de-3e1b-4377-bad9-7449368134b2.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="3e4b9cfa-e88c-4031-80e9-09febb2e63d4.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="3e4b9cfa-e88c-4031-80e9-09febb2e63d4.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="ffff532e7da8-8e06-4a8e-8b4e-7bd5bc186051.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="ffff532e7da8-8e06-4a8e-8b4e-7bd5bc186051.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 08:09:07</t>
+    <t>2017-01-03 08:10:25</t>
   </si>
   <si>
     <t>ffff532e7da8-8e06-4a8e-8b4e-7bd5bc186051.md</t>
@@ -133,13 +133,13 @@
     <t>5f969f78-5a77-4550-9280-9571b0ed316f.3ce5ae484577dc1af9be675441a127c148271d5d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 08:08:56</t>
+    <t>2017-01-03 08:10:14</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-01-03 08:09:30</t>
+    <t>2017-01-03 08:10:50</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>5f969f78-5a77-4550-9280-9571b0ed316f.3ce5ae484577dc1af9be675441a127c148271d5d.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 08:09:41</t>
+    <t>2017-01-03 08:11:03</t>
   </si>
   <si>
     <t>3e4b9cfa-e88c-4031-80e9-09febb2e63d4.a6c83b066a3ae09bb2afd8db03a9ed7680c3d691.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 08:10:25</t>
+    <t>2017-01-03 08:11:44</t>
   </si>
   <si>
     <t>ffff532e7da8-8e06-4a8e-8b4e-7bd5bc186051.md</t>
@@ -133,13 +133,13 @@
     <t>5f969f78-5a77-4550-9280-9571b0ed316f.3ce5ae484577dc1af9be675441a127c148271d5d.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 08:10:14</t>
+    <t>2017-01-03 08:11:31</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-01-03 08:10:50</t>
+    <t>2017-01-03 08:12:03</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>5f969f78-5a77-4550-9280-9571b0ed316f.3ce5ae484577dc1af9be675441a127c148271d5d.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 08:11:03</t>
+    <t>2017-01-03 08:12:16</t>
   </si>
   <si>
     <t>3e4b9cfa-e88c-4031-80e9-09febb2e63d4.a6c83b066a3ae09bb2afd8db03a9ed7680c3d691.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>File Name</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 08:26:15</t>
+    <t>2017-01-03 08:28:44</t>
   </si>
   <si>
     <t>27a1f128-3887-4390-a6e6-dbb215b19bd3.md</t>
@@ -58,9 +58,6 @@
     <t>e2e\27a1f128-3887-4390-a6e6-dbb215b19bd3.md</t>
   </si>
   <si>
-    <t>2017-01-03 08:27:27</t>
-  </si>
-  <si>
     <t>9d4515de-407d-4f7c-8a16-be3c28d7cebe.md</t>
   </si>
   <si>
@@ -130,34 +127,31 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>mt</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0996b3ba-5afc-4a82-a3d5-9b07755d24eb.a6a0dbd768b40a6594b07ff1f97703770dc7e4c4.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-01-03 08:28:32</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>0996b3ba-5afc-4a82-a3d5-9b07755d24eb.a6a0dbd768b40a6594b07ff1f97703770dc7e4c4.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-01-03 08:26:06</t>
-  </si>
-  <si>
     <t>2017-01-03 08:26:30</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>ht</t>
-  </si>
-  <si>
     <t>27a1f128-3887-4390-a6e6-dbb215b19bd3.7400f2695211f937a7a8bd68619ca5008c56a881.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 08:27:16</t>
-  </si>
-  <si>
-    <t>2017-01-03 08:27:49</t>
+    <t>2017-01-03 08:29:05</t>
   </si>
   <si>
     <t>9d4515de-407d-4f7c-8a16-be3c28d7cebe.5d3df67b8d7b5de2d594483e176b3a15917a6805.zh-cn.xlf</t>
@@ -175,7 +169,7 @@
     <t>27a1f128-3887-4390-a6e6-dbb215b19bd3.7400f2695211f937a7a8bd68619ca5008c56a881.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-01-03 08:28:00</t>
+    <t>2017-01-03 08:29:16</t>
   </si>
   <si>
     <t>9d4515de-407d-4f7c-8a16-be3c28d7cebe.5d3df67b8d7b5de2d594483e176b3a15917a6805.de-de.xlf</t>
@@ -384,16 +378,16 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
@@ -404,15 +398,15 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -471,58 +465,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -536,49 +530,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -592,54 +586,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -648,54 +642,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="L4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -704,49 +698,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -797,58 +791,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -862,49 +856,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -918,54 +912,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F3" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -974,54 +968,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="K4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1030,49 +1024,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="F5" s="0" t="s">
         <v>43</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test1/ci/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-01-03 09:13:40</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-01-03 09:13:40</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-01-03 09:15:50</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-01-03 09:15:38</t>
+  </si>
+  <si>
+    <t>2017-01-03 09:16:39</t>
+  </si>
+  <si>
+    <t>TestHandback_201701030916</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-01-03 09:14:10</t>
+  </si>
+  <si>
+    <t>2017-01-03 09:16:51</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850729806083" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
